--- a/xlsx/互联网历史_intext.xlsx
+++ b/xlsx/互联网历史_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-History of the Internet</t>
   </si>
   <si>
-    <t>政策_政策_美國_互联网历史</t>
+    <t>政策_政策_美国_互联网历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E5%AD%98%E5%8F%96</t>
   </si>
   <si>
-    <t>網路存取</t>
+    <t>网路存取</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E5%AE%A1%E6%9F%A5</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%90%BD%E5%B7%AE</t>
   </si>
   <si>
-    <t>數位落差</t>
+    <t>数位落差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%97%E6%9D%83%E5%88%A9</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%88%86%E7%B4%85</t>
   </si>
   <si>
-    <t>網路爆紅</t>
+    <t>网路爆红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E4%B8%AD%E7%AB%8B%E6%80%A7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%92%E8%81%94%E7%BD%91%E7%9A%84%E4%BD%BF%E7%94%A8</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%8D%9A</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%88%86%E4%BA%AB</t>
   </si>
   <si>
-    <t>檔案分享</t>
+    <t>档案分享</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/File_transfer</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%99%82%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>即時通訊</t>
+    <t>即时通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%AD%E5%AE%A2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E5%8D%94%E8%AD%B0%E9%80%9A%E8%A9%B1%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>網際協議通話技術</t>
+    <t>网际协议通话技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E6%81%A9</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCP/IP%E5%8D%8F%E8%AE%AE</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%A0%B8%E5%AD%90%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>歐洲核子研究組織</t>
+    <t>欧洲核子研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E4%BC%AF%E7%BA%B3%E6%96%AF-%E6%9D%8E</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>虛擬社區</t>
+    <t>虚拟社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E6%96%87%E5%8C%96</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E4%BD%BF%E7%94%A8%E7%8E%87</t>
   </si>
   <si>
-    <t>全球網際網路使用率</t>
+    <t>全球网际网路使用率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mosaic</t>
